--- a/Master/MasterData/AnpanAI.xlsx
+++ b/Master/MasterData/AnpanAI.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="テストボス" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -271,7 +272,7 @@
   </sheetPr>
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -489,4 +490,267 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:F32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C32" type="list">
+      <formula1>基本!$B$3:$F$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>